--- a/data/trans_camb/P27A_8-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P27A_8-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 3,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 4,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 0,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 7,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 0,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 4,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-55,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-46,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-70,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-62,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 143,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,71; 345,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-92,99; 42,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,73; 138,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -1,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 2,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 9,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 3,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-87,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-58,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-62,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-93,44; 86,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,17 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-89,02; 707,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-92,51; 30,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,35; 111,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 3,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 11,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,46; -2,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 5,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 5,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-48,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-75,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-64,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,23; 112,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,23; 258,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-93,73; -15,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,8; 74,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,39; -18,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,46; 81,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 0,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 9,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 1,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 4,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 0,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-58,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-35,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-45,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-89,19; 49,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 242,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-76,31; 45,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 82,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,36; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 78,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 11,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 11,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 0,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 3,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 4,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-53,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-34,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-37,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-15,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1665,37 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-88,05; 31,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-82,78; 88,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-86,54; 98,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-73,43; 98,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 6,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 0,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>139,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-68,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-36,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-58,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-11,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1881,37 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 100,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-87,45; 174,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 94,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-76,64; 198,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,89; -0,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,79; -1,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -2,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-53,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-56,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-54,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-78,05; -9,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-43,61; 51,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-74,71; -29,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 30,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-70,02; -31,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 21,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
